--- a/регистры+протокол.xlsx
+++ b/регистры+протокол.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t>Адрес</t>
   </si>
@@ -57,9 +57,6 @@
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>LocalPort</t>
-  </si>
-  <si>
     <t>Имя устройства</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>IP маршрутизатора</t>
   </si>
   <si>
-    <t>Порт соединения (сокета)</t>
-  </si>
-  <si>
     <t>"Weather Station"</t>
   </si>
   <si>
@@ -448,13 +442,25 @@
   </si>
   <si>
     <t>Системное время (день недели)</t>
+  </si>
+  <si>
+    <t>LocalPort1</t>
+  </si>
+  <si>
+    <t>LocalPort2</t>
+  </si>
+  <si>
+    <t>1-ый порт соединения (сокета)</t>
+  </si>
+  <si>
+    <t>2-ой порт соединения (сокета)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +548,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -590,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -663,6 +683,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -671,7 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,9 +763,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,6 +781,12 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,6 +798,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1042,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,16 +1107,16 @@
     <row r="2" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
@@ -1080,22 +1128,22 @@
     </row>
     <row r="3" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1104,22 +1152,22 @@
     </row>
     <row r="4" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="9"/>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1128,22 +1176,22 @@
     </row>
     <row r="5" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" s="9">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1152,18 +1200,18 @@
     </row>
     <row r="6" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1172,22 +1220,22 @@
     </row>
     <row r="7" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="4">
         <v>3</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1196,18 +1244,18 @@
     </row>
     <row r="8" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1216,21 +1264,21 @@
     </row>
     <row r="9" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="17"/>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9" s="4">
         <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1239,16 +1287,16 @@
     </row>
     <row r="10" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:15" ht="18" x14ac:dyDescent="0.35">
@@ -1256,13 +1304,13 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="18" x14ac:dyDescent="0.35">
@@ -1270,29 +1318,33 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="I13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="H13" s="31"/>
+      <c r="I13" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="33">
         <v>6</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>48</v>
+      <c r="K13" s="32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="K14" s="3" t="s">
-        <v>51</v>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="18" x14ac:dyDescent="0.35">
@@ -1320,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1370,13 +1422,13 @@
         <v>5</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
@@ -1384,38 +1436,38 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -1431,10 +1483,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -1450,55 +1502,55 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -1507,77 +1559,77 @@
         <v>5151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5152</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2">
-        <v>72</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -1586,36 +1638,36 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G14" s="18"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1624,18 +1676,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
@@ -1643,17 +1695,17 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1662,17 +1714,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1681,17 +1733,17 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1700,17 +1752,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1719,17 +1771,17 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1738,17 +1790,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1757,17 +1809,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1776,17 +1828,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1795,17 +1847,17 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1814,17 +1866,17 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1833,17 +1885,17 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1852,71 +1904,90 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G29" s="18"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B31" s="2">
+        <v>106</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B32" s="10">
+        <v>110</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="2">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
-        <v>106</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="18"/>
+      <c r="G32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G12:G31"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="H12:H28"/>
+    <mergeCell ref="G13:G32"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H13:H29"/>
+    <mergeCell ref="H3:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -1925,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H40"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1959,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -1973,16 +2044,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>131</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
@@ -1990,38 +2061,38 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -2037,10 +2108,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -2056,55 +2127,55 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -2113,95 +2184,95 @@
         <v>5151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="25"/>
+        <v>142</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>67</v>
+      <c r="E11" s="2">
+        <v>5152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="21"/>
+        <v>143</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -2210,36 +2281,36 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -2248,18 +2319,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
@@ -2267,17 +2338,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2286,17 +2357,17 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2305,17 +2376,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2324,17 +2395,17 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2343,17 +2414,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="24"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2362,17 +2433,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -2381,17 +2452,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2400,17 +2471,17 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2419,17 +2490,17 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2438,17 +2509,17 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="24"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2457,17 +2528,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2476,44 +2547,45 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G30" s="18"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -2522,37 +2594,55 @@
         <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="7:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="7:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="7:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="7:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="7:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="7:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="H13:H29"/>
-    <mergeCell ref="G13:G32"/>
-    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H14:H30"/>
+    <mergeCell ref="G14:G33"/>
+    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="H3:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2561,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S47"/>
+  <dimension ref="B2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2596,20 +2686,20 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
@@ -2622,46 +2712,46 @@
         <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>131</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.35">
@@ -2669,19 +2759,19 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="26"/>
       <c r="J4" s="13">
         <v>0</v>
       </c>
@@ -2718,19 +2808,19 @@
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="26"/>
       <c r="J5" s="13"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -2756,10 +2846,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="26"/>
       <c r="J6" s="13">
         <v>1</v>
       </c>
@@ -2805,10 +2895,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="26"/>
       <c r="J7" s="13">
         <v>2</v>
       </c>
@@ -2845,19 +2935,19 @@
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
       <c r="J8" s="13">
         <v>3</v>
       </c>
@@ -2894,19 +2984,19 @@
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="26"/>
       <c r="J9" s="13"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2923,7 +3013,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -2932,10 +3022,10 @@
         <v>5151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="26"/>
       <c r="J10" s="13">
         <v>4</v>
       </c>
@@ -2972,18 +3062,19 @@
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>5152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="26"/>
       <c r="J11" s="13"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2995,79 +3086,58 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="J13" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="6">
         <v>0</v>
@@ -3088,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
@@ -3102,21 +3172,21 @@
         <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>132</v>
+      <c r="E14" s="2">
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="23"/>
       <c r="J14" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -3140,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="18" x14ac:dyDescent="0.35">
@@ -3151,36 +3221,56 @@
         <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="24"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="23"/>
+      <c r="J15" s="13">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -3189,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="23"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -3206,11 +3296,11 @@
     </row>
     <row r="17" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
@@ -3218,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="23"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -3235,10 +3325,10 @@
     </row>
     <row r="18" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -3247,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="23"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -3264,10 +3354,10 @@
     </row>
     <row r="19" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -3276,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="24"/>
+        <v>134</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="23"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -3293,10 +3383,10 @@
     </row>
     <row r="20" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3305,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="24"/>
+        <v>135</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="23"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -3322,10 +3412,10 @@
     </row>
     <row r="21" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3334,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="23"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -3351,10 +3441,10 @@
     </row>
     <row r="22" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3363,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="24"/>
+        <v>136</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="23"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -3380,10 +3470,10 @@
     </row>
     <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3392,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="23"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -3409,10 +3499,10 @@
     </row>
     <row r="24" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3421,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="23"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -3438,10 +3528,10 @@
     </row>
     <row r="25" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3450,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="23"/>
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -3467,10 +3557,10 @@
     </row>
     <row r="26" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3479,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="23"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -3496,10 +3586,10 @@
     </row>
     <row r="27" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -3508,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="23"/>
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -3525,10 +3615,10 @@
     </row>
     <row r="28" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3537,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="23"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -3554,95 +3644,123 @@
     </row>
     <row r="29" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="24"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
     </row>
     <row r="30" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <v>106</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
         <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
         <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="30"/>
+    </row>
     <row r="35" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3654,19 +3772,20 @@
     <row r="43" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G46" s="12"/>
-    </row>
+    <row r="46" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="J2:S2"/>
-    <mergeCell ref="G12:G33"/>
-    <mergeCell ref="H3:H10"/>
-    <mergeCell ref="G3:G11"/>
-    <mergeCell ref="H12:H28"/>
+    <mergeCell ref="G13:G34"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H13:H29"/>
+    <mergeCell ref="H3:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/регистры+протокол.xlsx
+++ b/регистры+протокол.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="144">
   <si>
     <t>Адрес</t>
   </si>
@@ -754,6 +754,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -798,11 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1158,10 +1158,10 @@
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="20" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="3"/>
@@ -1182,8 +1182,8 @@
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
@@ -1206,8 +1206,8 @@
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
@@ -1226,8 +1226,8 @@
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1250,8 +1250,8 @@
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
@@ -1270,7 +1270,7 @@
       <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="20"/>
       <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1325,14 +1325,14 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="18">
         <v>6</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1340,10 +1340,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1424,10 +1424,10 @@
       <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1447,8 +1447,8 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -1466,8 +1466,8 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -1485,8 +1485,8 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -1504,8 +1504,8 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1523,8 +1523,8 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -1542,8 +1542,8 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
@@ -1561,8 +1561,8 @@
       <c r="F10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -1580,8 +1580,8 @@
       <c r="F11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
@@ -1599,7 +1599,7 @@
       <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
@@ -1617,10 +1617,10 @@
       <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="25" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1640,8 +1640,8 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
@@ -1659,8 +1659,8 @@
       <c r="F15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
@@ -1678,8 +1678,8 @@
       <c r="F16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
@@ -1697,8 +1697,8 @@
       <c r="F17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
@@ -1716,8 +1716,8 @@
       <c r="F18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
@@ -1735,8 +1735,8 @@
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
@@ -1754,8 +1754,8 @@
       <c r="F20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
@@ -1773,8 +1773,8 @@
       <c r="F21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
@@ -1792,8 +1792,8 @@
       <c r="F22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
@@ -1811,8 +1811,8 @@
       <c r="F23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
@@ -1830,8 +1830,8 @@
       <c r="F24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
@@ -1849,8 +1849,8 @@
       <c r="F25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
@@ -1868,8 +1868,8 @@
       <c r="F26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
@@ -1887,8 +1887,8 @@
       <c r="F27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
@@ -1906,8 +1906,8 @@
       <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
@@ -1925,8 +1925,8 @@
       <c r="F29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
@@ -1944,7 +1944,7 @@
       <c r="F30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
@@ -1962,7 +1962,7 @@
       <c r="F31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
@@ -1980,7 +1980,7 @@
       <c r="F32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2049,10 +2049,10 @@
       <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2072,8 +2072,8 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -2091,8 +2091,8 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -2110,8 +2110,8 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -2129,8 +2129,8 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -2148,8 +2148,8 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -2167,8 +2167,8 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
@@ -2186,8 +2186,8 @@
       <c r="F10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -2205,8 +2205,8 @@
       <c r="F11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
@@ -2224,7 +2224,7 @@
       <c r="F12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
@@ -2242,7 +2242,7 @@
       <c r="F13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
@@ -2260,10 +2260,10 @@
       <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="25" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2283,8 +2283,8 @@
       <c r="F15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
@@ -2302,8 +2302,8 @@
       <c r="F16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
@@ -2321,8 +2321,8 @@
       <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
@@ -2340,8 +2340,8 @@
       <c r="F18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
@@ -2359,8 +2359,8 @@
       <c r="F19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
@@ -2378,8 +2378,8 @@
       <c r="F20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
@@ -2397,8 +2397,8 @@
       <c r="F21" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
@@ -2416,8 +2416,8 @@
       <c r="F22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
@@ -2435,8 +2435,8 @@
       <c r="F23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
@@ -2454,8 +2454,8 @@
       <c r="F24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="26"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
@@ -2473,8 +2473,8 @@
       <c r="F25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
@@ -2492,8 +2492,8 @@
       <c r="F26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
@@ -2511,8 +2511,8 @@
       <c r="F27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
@@ -2530,8 +2530,8 @@
       <c r="F28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
@@ -2549,8 +2549,8 @@
       <c r="F29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
@@ -2568,8 +2568,8 @@
       <c r="F30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="24"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
@@ -2587,7 +2587,7 @@
       <c r="F31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
@@ -2605,7 +2605,7 @@
       <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
@@ -2623,7 +2623,7 @@
       <c r="F33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G34" s="12"/>
@@ -2654,7 +2654,7 @@
   <dimension ref="B2:S48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2688,18 +2688,18 @@
       <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11">
@@ -2717,10 +2717,10 @@
       <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>129</v>
       </c>
       <c r="J3" s="13" t="s">
@@ -2770,8 +2770,8 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="29"/>
       <c r="J4" s="13">
         <v>0</v>
       </c>
@@ -2819,8 +2819,8 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="29"/>
       <c r="J5" s="13"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -2848,8 +2848,8 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="29"/>
       <c r="J6" s="13">
         <v>1</v>
       </c>
@@ -2897,8 +2897,8 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="29"/>
       <c r="J7" s="13">
         <v>2</v>
       </c>
@@ -2946,8 +2946,8 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="29"/>
       <c r="J8" s="13">
         <v>3</v>
       </c>
@@ -2995,8 +2995,8 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="29"/>
       <c r="J9" s="13"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -3024,8 +3024,8 @@
       <c r="F10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="29"/>
       <c r="J10" s="13">
         <v>4</v>
       </c>
@@ -3073,8 +3073,8 @@
       <c r="F11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="29"/>
       <c r="J11" s="13"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -3102,7 +3102,7 @@
       <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="24"/>
       <c r="J12" s="13"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -3130,10 +3130,10 @@
       <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="25" t="s">
         <v>129</v>
       </c>
       <c r="J13" s="13">
@@ -3183,8 +3183,8 @@
       <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="26"/>
       <c r="J14" s="13">
         <v>6</v>
       </c>
@@ -3232,8 +3232,8 @@
       <c r="F15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="26"/>
       <c r="J15" s="13">
         <v>7</v>
       </c>
@@ -3275,14 +3275,14 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
+      <c r="E16" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="26"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -3304,14 +3304,14 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
+      <c r="E17" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="26"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -3333,14 +3333,14 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
+      <c r="E18" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="26"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -3362,14 +3362,14 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
+      <c r="E19" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="26"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -3391,14 +3391,14 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
+      <c r="E20" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="26"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -3420,14 +3420,14 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
+      <c r="E21" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="26"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -3449,14 +3449,14 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
+      <c r="E22" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="26"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -3478,14 +3478,14 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
+      <c r="E23" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="26"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -3507,14 +3507,14 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
+      <c r="E24" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="26"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -3536,14 +3536,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
+      <c r="E25" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="26"/>
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -3565,14 +3565,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="23"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="26"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -3594,14 +3594,14 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="26"/>
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -3623,14 +3623,14 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
+      <c r="E28" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="26"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -3652,14 +3652,14 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
+      <c r="E29" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="27"/>
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
@@ -3687,7 +3687,7 @@
       <c r="F30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
@@ -3705,7 +3705,7 @@
       <c r="F31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
@@ -3723,7 +3723,7 @@
       <c r="F32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
@@ -3741,7 +3741,7 @@
       <c r="F33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
@@ -3759,7 +3759,7 @@
       <c r="F34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/регистры+протокол.xlsx
+++ b/регистры+протокол.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="155">
   <si>
     <t>Адрес</t>
   </si>
@@ -375,9 +375,6 @@
     <t>бит</t>
   </si>
   <si>
-    <t>Неизвестное</t>
-  </si>
-  <si>
     <t>С</t>
   </si>
   <si>
@@ -454,6 +451,42 @@
   </si>
   <si>
     <t>2-ой порт соединения (сокета)</t>
+  </si>
+  <si>
+    <t>TempCorrection</t>
+  </si>
+  <si>
+    <t>HumCorrection</t>
+  </si>
+  <si>
+    <t>Калибровочная поправка температуры</t>
+  </si>
+  <si>
+    <t>Калибровочная поправка влажности</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+  <si>
+    <t>Столбец4</t>
+  </si>
+  <si>
+    <t>Столбец5</t>
+  </si>
+  <si>
+    <t>Столбец6</t>
+  </si>
+  <si>
+    <t>Столбец7</t>
+  </si>
+  <si>
+    <t>Столбец8</t>
+  </si>
+  <si>
+    <t>Столбец9</t>
   </si>
 </sst>
 </file>
@@ -610,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -703,6 +736,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -711,7 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,16 +817,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,9 +847,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -792,9 +862,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +871,33 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% — акцент1" xfId="3" builtinId="31"/>
@@ -812,7 +906,386 @@
     <cellStyle name="Плохой" xfId="4" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -823,6 +1296,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="J2:R11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11" headerRowCellStyle="Плохой">
+  <autoFilter ref="J2:R11"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Описание байта WindDirection" dataDxfId="10"/>
+    <tableColumn id="3" name="Столбец2" dataDxfId="9"/>
+    <tableColumn id="4" name="Столбец3" dataDxfId="8"/>
+    <tableColumn id="5" name="Столбец4" dataDxfId="7"/>
+    <tableColumn id="6" name="Столбец5" dataDxfId="6"/>
+    <tableColumn id="7" name="Столбец6" dataDxfId="5"/>
+    <tableColumn id="8" name="Столбец7" dataDxfId="4"/>
+    <tableColumn id="9" name="Столбец8" dataDxfId="3"/>
+    <tableColumn id="10" name="Столбец9" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,10 +1649,10 @@
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="3"/>
@@ -1182,8 +1673,8 @@
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
@@ -1206,8 +1697,8 @@
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
@@ -1226,8 +1717,8 @@
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1250,8 +1741,8 @@
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
@@ -1270,7 +1761,7 @@
       <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="18"/>
       <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1318,21 +1809,21 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="K12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="16">
         <v>6</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1340,10 +1831,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1372,19 +1863,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="39.109375" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" customWidth="1"/>
     <col min="7" max="7" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1409,30 +1900,31 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>32</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>129</v>
+      <c r="H3" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
+        <f>B3+D3</f>
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1447,11 +1939,12 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
+        <f t="shared" ref="B5:B34" si="0">B4+D4</f>
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1466,11 +1959,12 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1485,11 +1979,12 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1504,11 +1999,12 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1523,11 +2019,12 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1542,15 +2039,16 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -1559,17 +2057,18 @@
         <v>5151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -1578,77 +2077,77 @@
         <v>5152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>129</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
@@ -1657,55 +2156,62 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1714,17 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="26"/>
+        <v>93</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>91</v>
+        <f t="shared" si="0"/>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1733,17 +2240,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
-        <v>92</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1752,17 +2260,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1771,17 +2280,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="26"/>
+        <v>133</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1790,17 +2300,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -1809,17 +2320,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="26"/>
+        <v>94</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1828,17 +2340,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="26"/>
+        <v>135</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -1847,17 +2360,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1866,17 +2380,18 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -1885,17 +2400,18 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -1904,17 +2420,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -1923,53 +2440,58 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -1978,16 +2500,54 @@
         <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G13:G32"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H13:H29"/>
+    <mergeCell ref="G15:G34"/>
+    <mergeCell ref="H15:H31"/>
     <mergeCell ref="H3:H11"/>
+    <mergeCell ref="G3:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
@@ -1996,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2034,30 +2594,31 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>32</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>129</v>
+      <c r="H3" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
+        <f>B3+D3</f>
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2072,11 +2633,12 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
+        <f t="shared" ref="B5:B35" si="0">B4+D4</f>
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2091,11 +2653,12 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2110,11 +2673,12 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2129,11 +2693,12 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2148,11 +2713,12 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="29"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2167,15 +2733,16 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -2184,17 +2751,18 @@
         <v>5151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2203,17 +2771,18 @@
         <v>5152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -2222,16 +2791,18 @@
         <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="23"/>
+        <v>145</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -2240,58 +2811,56 @@
         <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>129</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2">
         <v>4</v>
@@ -2300,55 +2869,62 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2357,17 +2933,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="26"/>
+        <v>93</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
-        <v>91</v>
+        <f t="shared" si="0"/>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2376,17 +2953,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>92</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2395,17 +2973,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2414,17 +2993,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="26"/>
+        <v>133</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -2433,17 +3013,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -2452,17 +3033,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="26"/>
+        <v>94</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -2471,17 +3053,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="26"/>
+        <v>135</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -2490,17 +3073,18 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="26"/>
+        <v>58</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -2509,17 +3093,18 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -2528,17 +3113,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -2547,17 +3133,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="26"/>
+        <v>138</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -2566,83 +3153,126 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="11"/>
+    </row>
     <row r="38" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H14:H30"/>
-    <mergeCell ref="G14:G33"/>
-    <mergeCell ref="G3:G13"/>
+    <mergeCell ref="H16:H32"/>
+    <mergeCell ref="G16:G35"/>
     <mergeCell ref="H3:H11"/>
+    <mergeCell ref="G3:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2651,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S48"/>
+  <dimension ref="B2:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2663,10 +3293,11 @@
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="37.109375" customWidth="1"/>
-    <col min="6" max="6" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="35.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36.88671875" customWidth="1"/>
     <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.35">
@@ -2688,42 +3319,57 @@
       <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="K2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>32</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -2747,15 +3393,13 @@
       <c r="Q3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
+        <f>B3+D3</f>
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2770,16 +3414,16 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="13">
+      <c r="G4" s="21"/>
+      <c r="H4" s="26"/>
+      <c r="J4" s="31">
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
@@ -2796,15 +3440,13 @@
       <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="6">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
+      <c r="R4" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
+        <f t="shared" ref="B5:B36" si="0">B4+D4</f>
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2814,26 +3456,44 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="29"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="26"/>
+      <c r="J5" s="31">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2848,10 +3508,10 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="13">
-        <v>1</v>
+      <c r="G6" s="21"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="31">
+        <v>2</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
@@ -2874,15 +3534,13 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
+      <c r="R6" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2897,10 +3555,10 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="29"/>
-      <c r="J7" s="13">
-        <v>2</v>
+      <c r="G7" s="21"/>
+      <c r="H7" s="26"/>
+      <c r="J7" s="31">
+        <v>3</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -2923,15 +3581,13 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="R7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2946,10 +3602,10 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="29"/>
-      <c r="J8" s="13">
-        <v>3</v>
+      <c r="G8" s="21"/>
+      <c r="H8" s="26"/>
+      <c r="J8" s="31">
+        <v>4</v>
       </c>
       <c r="K8" s="6">
         <v>0</v>
@@ -2972,15 +3628,13 @@
       <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="R8" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2990,30 +3644,48 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="29"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="26"/>
+      <c r="J9" s="31">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
@@ -3022,12 +3694,12 @@
         <v>5151</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
-      <c r="J10" s="13">
-        <v>4</v>
+        <v>141</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="26"/>
+      <c r="J10" s="31">
+        <v>6</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
@@ -3045,24 +3717,22 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -3071,648 +3741,588 @@
         <v>5152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="29"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="26"/>
+      <c r="J11" s="36">
+        <v>7</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37">
+        <v>0</v>
+      </c>
+      <c r="R11" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="30"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="13">
-        <v>5</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="30"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
     </row>
     <row r="14" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="13">
-        <v>6</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="18" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>130</v>
+      <c r="E15" s="2">
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="13">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
     </row>
     <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="26"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+        <v>97</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="26"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="26"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
     </row>
     <row r="19" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
-        <v>91</v>
+        <f t="shared" si="0"/>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="26"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
-        <v>92</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="26"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
     </row>
     <row r="21" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="26"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="23"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="26"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="26"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="23"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="26"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+        <v>135</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="23"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="26"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="23"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="26"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="26"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="26"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
-        <v>101</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="27"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -3721,16 +4331,17 @@
         <v>65</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -3739,30 +4350,67 @@
         <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G36" s="29"/>
+    </row>
     <row r="37" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3773,21 +4421,25 @@
     <row r="44" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G48" s="12"/>
+    <row r="47" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J2:S2"/>
-    <mergeCell ref="G13:G34"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H13:H29"/>
+  <mergeCells count="4">
+    <mergeCell ref="G15:G36"/>
+    <mergeCell ref="H15:H31"/>
     <mergeCell ref="H3:H11"/>
+    <mergeCell ref="G3:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/регистры+протокол.xlsx
+++ b/регистры+протокол.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="163">
   <si>
     <t>Адрес</t>
   </si>
@@ -487,6 +487,30 @@
   </si>
   <si>
     <t>Столбец9</t>
+  </si>
+  <si>
+    <t>TempSource</t>
+  </si>
+  <si>
+    <t>Выбор датчика для измерения температуры: 0 - датчик от GasBoilerController; 1 - от ControlPanel</t>
+  </si>
+  <si>
+    <t>Текущая температура (для алгоритма термостата)</t>
+  </si>
+  <si>
+    <t>Температура от внутреннего датчика</t>
+  </si>
+  <si>
+    <t>ControlPanelTemp</t>
+  </si>
+  <si>
+    <t>GasBoilerTemp</t>
+  </si>
+  <si>
+    <t>CurrentTemp</t>
+  </si>
+  <si>
+    <t>Температура от датчика ControlPanel</t>
   </si>
 </sst>
 </file>
@@ -790,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,45 +856,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -898,6 +883,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% — акцент1" xfId="3" builtinId="31"/>
@@ -907,52 +940,6 @@
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF9C0006"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1264,13 +1251,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1283,6 +1263,59 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1299,18 +1332,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="J2:R11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11" headerRowCellStyle="Плохой">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="J2:R11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9" headerRowCellStyle="Плохой">
   <autoFilter ref="J2:R11"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Описание байта WindDirection" dataDxfId="10"/>
-    <tableColumn id="3" name="Столбец2" dataDxfId="9"/>
-    <tableColumn id="4" name="Столбец3" dataDxfId="8"/>
-    <tableColumn id="5" name="Столбец4" dataDxfId="7"/>
-    <tableColumn id="6" name="Столбец5" dataDxfId="6"/>
-    <tableColumn id="7" name="Столбец6" dataDxfId="5"/>
-    <tableColumn id="8" name="Столбец7" dataDxfId="4"/>
-    <tableColumn id="9" name="Столбец8" dataDxfId="3"/>
-    <tableColumn id="10" name="Столбец9" dataDxfId="2"/>
+    <tableColumn id="1" name="Описание байта WindDirection" dataDxfId="8"/>
+    <tableColumn id="3" name="Столбец2" dataDxfId="7"/>
+    <tableColumn id="4" name="Столбец3" dataDxfId="6"/>
+    <tableColumn id="5" name="Столбец4" dataDxfId="5"/>
+    <tableColumn id="6" name="Столбец5" dataDxfId="4"/>
+    <tableColumn id="7" name="Столбец6" dataDxfId="3"/>
+    <tableColumn id="8" name="Столбец7" dataDxfId="2"/>
+    <tableColumn id="9" name="Столбец8" dataDxfId="1"/>
+    <tableColumn id="10" name="Столбец9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1581,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1649,10 +1682,10 @@
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="29" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="3"/>
@@ -1673,8 +1706,8 @@
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
@@ -1697,8 +1730,8 @@
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
@@ -1717,8 +1750,8 @@
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
@@ -1741,8 +1774,8 @@
       <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
@@ -1761,7 +1794,7 @@
       <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="29"/>
       <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1865,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,10 +1948,10 @@
       <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="34" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1939,8 +1972,8 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -1959,8 +1992,8 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -1979,8 +2012,8 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -1999,8 +2032,8 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -2019,8 +2052,8 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -2039,8 +2072,8 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
@@ -2059,8 +2092,8 @@
       <c r="F10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -2079,8 +2112,8 @@
       <c r="F11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
@@ -2099,8 +2132,8 @@
       <c r="F12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
@@ -2119,8 +2152,8 @@
       <c r="F13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
@@ -2131,7 +2164,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2139,12 +2172,12 @@
       <c r="F14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
@@ -2158,17 +2191,17 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>96</v>
@@ -2182,13 +2215,13 @@
       <c r="F16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>83</v>
@@ -2202,13 +2235,13 @@
       <c r="F17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>87</v>
@@ -2222,13 +2255,13 @@
       <c r="F18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>86</v>
@@ -2242,13 +2275,13 @@
       <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>85</v>
@@ -2262,13 +2295,13 @@
       <c r="F20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>132</v>
@@ -2282,13 +2315,13 @@
       <c r="F21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>90</v>
@@ -2302,13 +2335,13 @@
       <c r="F22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>89</v>
@@ -2322,13 +2355,13 @@
       <c r="F23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>88</v>
@@ -2342,13 +2375,13 @@
       <c r="F24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>54</v>
@@ -2362,13 +2395,13 @@
       <c r="F25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>53</v>
@@ -2382,13 +2415,13 @@
       <c r="F26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="23"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>136</v>
@@ -2402,13 +2435,13 @@
       <c r="F27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>137</v>
@@ -2422,13 +2455,13 @@
       <c r="F28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>57</v>
@@ -2442,13 +2475,13 @@
       <c r="F29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>56</v>
@@ -2462,13 +2495,13 @@
       <c r="F30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>55</v>
@@ -2482,13 +2515,13 @@
       <c r="F31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>64</v>
@@ -2502,12 +2535,12 @@
       <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
@@ -2521,12 +2554,12 @@
       <c r="F33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>69</v>
@@ -2540,7 +2573,7 @@
       <c r="F34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2556,16 +2589,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="6" max="6" width="43.6640625" customWidth="1"/>
@@ -2609,10 +2642,10 @@
       <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="34" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2633,12 +2666,12 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B35" si="0">B4+D4</f>
+        <f t="shared" ref="B5:B38" si="0">B4+D4</f>
         <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2653,8 +2686,8 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -2673,8 +2706,8 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -2693,8 +2726,8 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -2713,8 +2746,8 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -2733,8 +2766,8 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
@@ -2753,8 +2786,8 @@
       <c r="F10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="26"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -2773,8 +2806,8 @@
       <c r="F11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="26"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
@@ -2793,8 +2826,8 @@
       <c r="F12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
@@ -2813,8 +2846,8 @@
       <c r="F13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
@@ -2833,7 +2866,7 @@
       <c r="F14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
@@ -2852,59 +2885,58 @@
       <c r="F15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="2">
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G17" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H17" s="31" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
@@ -2913,30 +2945,30 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
@@ -2944,7 +2976,7 @@
         <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2953,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
@@ -2964,7 +2996,7 @@
         <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -2973,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
@@ -2984,7 +3016,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -2993,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
@@ -3004,7 +3036,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3013,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
@@ -3024,7 +3056,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3033,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
+        <v>134</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
@@ -3044,7 +3076,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3053,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
@@ -3064,7 +3096,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3073,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
@@ -3084,7 +3116,7 @@
         <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -3093,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
@@ -3104,7 +3136,7 @@
         <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3113,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
@@ -3124,7 +3156,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3133,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="23"/>
+        <v>60</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
@@ -3144,7 +3176,7 @@
         <v>107</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -3153,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
@@ -3164,7 +3196,7 @@
         <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -3173,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
@@ -3184,46 +3216,47 @@
         <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="G33" s="30"/>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -3232,47 +3265,104 @@
         <v>65</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="26">
+        <v>4</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H16:H32"/>
-    <mergeCell ref="G16:G35"/>
+    <mergeCell ref="H17:H33"/>
+    <mergeCell ref="G17:G38"/>
     <mergeCell ref="H3:H11"/>
-    <mergeCell ref="G3:G15"/>
+    <mergeCell ref="G3:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3283,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3319,31 +3409,31 @@
       <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="22" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3363,13 +3453,13 @@
       <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="18" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="6" t="s">
@@ -3393,7 +3483,7 @@
       <c r="Q3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="19" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3414,9 +3504,9 @@
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="31">
+      <c r="G4" s="37"/>
+      <c r="H4" s="35"/>
+      <c r="J4" s="18">
         <v>0</v>
       </c>
       <c r="K4" s="6">
@@ -3440,7 +3530,7 @@
       <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3461,9 +3551,9 @@
       <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="26"/>
-      <c r="J5" s="31">
+      <c r="G5" s="37"/>
+      <c r="H5" s="35"/>
+      <c r="J5" s="18">
         <v>1</v>
       </c>
       <c r="K5" s="6">
@@ -3487,7 +3577,7 @@
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3508,9 +3598,9 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="26"/>
-      <c r="J6" s="31">
+      <c r="G6" s="37"/>
+      <c r="H6" s="35"/>
+      <c r="J6" s="18">
         <v>2</v>
       </c>
       <c r="K6" s="6">
@@ -3534,7 +3624,7 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3555,9 +3645,9 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="26"/>
-      <c r="J7" s="31">
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="J7" s="18">
         <v>3</v>
       </c>
       <c r="K7" s="6">
@@ -3581,7 +3671,7 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3602,9 +3692,9 @@
       <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="26"/>
-      <c r="J8" s="31">
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="J8" s="18">
         <v>4</v>
       </c>
       <c r="K8" s="6">
@@ -3628,7 +3718,7 @@
       <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3649,9 +3739,9 @@
       <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="26"/>
-      <c r="J9" s="31">
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="J9" s="18">
         <v>5</v>
       </c>
       <c r="K9" s="6">
@@ -3675,7 +3765,7 @@
       <c r="Q9" s="6">
         <v>0</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3696,9 +3786,9 @@
       <c r="F10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="26"/>
-      <c r="J10" s="31">
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="J10" s="18">
         <v>6</v>
       </c>
       <c r="K10" s="6">
@@ -3722,7 +3812,7 @@
       <c r="Q10" s="6">
         <v>1</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3743,33 +3833,33 @@
       <c r="F11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="26"/>
-      <c r="J11" s="36">
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="J11" s="23">
         <v>7</v>
       </c>
-      <c r="K11" s="37">
-        <v>0</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <v>0</v>
-      </c>
-      <c r="N11" s="37">
-        <v>0</v>
-      </c>
-      <c r="O11" s="37">
-        <v>0</v>
-      </c>
-      <c r="P11" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>0</v>
-      </c>
-      <c r="R11" s="38">
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3790,8 +3880,8 @@
       <c r="F12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="17"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -3820,8 +3910,8 @@
       <c r="F13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="17"/>
       <c r="J13" s="12"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -3842,7 +3932,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -3850,7 +3940,7 @@
       <c r="F14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="37"/>
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -3865,7 +3955,7 @@
     <row r="15" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
@@ -3879,10 +3969,10 @@
       <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="31" t="s">
         <v>128</v>
       </c>
       <c r="J15" s="12"/>
@@ -3899,7 +3989,7 @@
     <row r="16" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>96</v>
@@ -3913,8 +4003,8 @@
       <c r="F16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="32"/>
       <c r="J16" s="12"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -3929,7 +4019,7 @@
     <row r="17" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>83</v>
@@ -3943,8 +4033,8 @@
       <c r="F17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="32"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -3959,7 +4049,7 @@
     <row r="18" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>87</v>
@@ -3973,8 +4063,8 @@
       <c r="F18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="32"/>
       <c r="J18" s="12"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -3989,7 +4079,7 @@
     <row r="19" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>86</v>
@@ -4003,8 +4093,8 @@
       <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="32"/>
       <c r="J19" s="12"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -4019,7 +4109,7 @@
     <row r="20" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>85</v>
@@ -4033,8 +4123,8 @@
       <c r="F20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="32"/>
       <c r="J20" s="12"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -4049,7 +4139,7 @@
     <row r="21" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>132</v>
@@ -4063,8 +4153,8 @@
       <c r="F21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="32"/>
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -4079,7 +4169,7 @@
     <row r="22" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>90</v>
@@ -4093,8 +4183,8 @@
       <c r="F22" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="32"/>
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -4109,7 +4199,7 @@
     <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>89</v>
@@ -4123,8 +4213,8 @@
       <c r="F23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="32"/>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -4139,7 +4229,7 @@
     <row r="24" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>88</v>
@@ -4153,8 +4243,8 @@
       <c r="F24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="32"/>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -4169,7 +4259,7 @@
     <row r="25" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>54</v>
@@ -4183,8 +4273,8 @@
       <c r="F25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="32"/>
       <c r="J25" s="12"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -4199,7 +4289,7 @@
     <row r="26" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>53</v>
@@ -4213,13 +4303,13 @@
       <c r="F26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="23"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>136</v>
@@ -4233,13 +4323,13 @@
       <c r="F27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>137</v>
@@ -4253,13 +4343,13 @@
       <c r="F28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="23"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>57</v>
@@ -4273,13 +4363,13 @@
       <c r="F29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>56</v>
@@ -4293,13 +4383,13 @@
       <c r="F30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>55</v>
@@ -4313,13 +4403,13 @@
       <c r="F31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>64</v>
@@ -4333,12 +4423,12 @@
       <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
@@ -4352,12 +4442,12 @@
       <c r="F33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="28"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>112</v>
@@ -4371,12 +4461,12 @@
       <c r="F34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="28"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>113</v>
@@ -4390,12 +4480,12 @@
       <c r="F35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="28"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>114</v>
@@ -4409,7 +4499,7 @@
       <c r="F36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
